--- a/fhir/activitydefinition-code-to-perform-sharing.xlsx
+++ b/fhir/activitydefinition-code-to-perform-sharing.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -148,166 +148,196 @@
     <t>Sagskonferencer</t>
   </si>
   <si>
+    <t>409073007</t>
+  </si>
+  <si>
+    <t>Instruktion</t>
+  </si>
+  <si>
+    <t>273586006</t>
+  </si>
+  <si>
+    <t>Master Questionnaire</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>Head activity</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>Situation quality assessment</t>
+  </si>
+  <si>
+    <t>QR</t>
+  </si>
+  <si>
+    <t>Usage quality assessment</t>
+  </si>
+  <si>
+    <t>SDG</t>
+  </si>
+  <si>
+    <t>Same device group</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.208.176.2.1</t>
+  </si>
+  <si>
+    <t>NPU03011</t>
+  </si>
+  <si>
+    <t>O2 sat.;Hb(aB)</t>
+  </si>
+  <si>
+    <t>NPU21692</t>
+  </si>
+  <si>
+    <t>Puls;Hjerte</t>
+  </si>
+  <si>
+    <t>NPU03804</t>
+  </si>
+  <si>
+    <t>Legeme vægt; Pt</t>
+  </si>
+  <si>
+    <t>NPU27281</t>
+  </si>
+  <si>
+    <t>Pt—Legeme; massekoefficient(masse/kvadreret højde) = ? kg/m²</t>
+  </si>
+  <si>
+    <t>NPU03794</t>
+  </si>
+  <si>
+    <t>Pt—Legeme; højde = ? m</t>
+  </si>
+  <si>
+    <t>NPU08676</t>
+  </si>
+  <si>
+    <t>Pt—Legeme; temp. = ? °C</t>
+  </si>
+  <si>
+    <t>NPU19748</t>
+  </si>
+  <si>
+    <t>C-reaktivt protein [CRP];P</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.208.184.100.8</t>
+  </si>
+  <si>
+    <t>MCS88015</t>
+  </si>
+  <si>
+    <t>FEV1;Lunge</t>
+  </si>
+  <si>
+    <t>MCS88016</t>
+  </si>
+  <si>
+    <t>FVC;Lunge</t>
+  </si>
+  <si>
+    <t>MCS88017</t>
+  </si>
+  <si>
+    <t>FEV1/FVC;Lunge</t>
+  </si>
+  <si>
+    <t>MCS88019</t>
+  </si>
+  <si>
+    <t>Blodtryk hjemme systolisk;Arm</t>
+  </si>
+  <si>
+    <t>MCS88020</t>
+  </si>
+  <si>
+    <t>Blodtryk hjemme diastolisk;Arm</t>
+  </si>
+  <si>
+    <t>MCS88021</t>
+  </si>
+  <si>
+    <t>MRC skala;Pt(KOL)</t>
+  </si>
+  <si>
+    <t>MCS88023</t>
+  </si>
+  <si>
+    <t>FEV1 af forventet værdi;Pt(KOL)</t>
+  </si>
+  <si>
+    <t>MCS88050</t>
+  </si>
+  <si>
+    <t>Rejse sætte sig testen;Pt</t>
+  </si>
+  <si>
+    <t>MCS88137</t>
+  </si>
+  <si>
+    <t>CAT score;Pt</t>
+  </si>
+  <si>
+    <t>MCS88192</t>
+  </si>
+  <si>
+    <t>Skridt per dag;Pt</t>
+  </si>
+  <si>
+    <t>MCS88193</t>
+  </si>
+  <si>
+    <t>Skridt per uge;Pt</t>
+  </si>
+  <si>
+    <t>MCS88194</t>
+  </si>
+  <si>
+    <t>Skridt;Pt</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.208.176.2.4</t>
+  </si>
+  <si>
+    <t>ZZ3170</t>
+  </si>
+  <si>
+    <t>Hjemmeblodtryksmåling udført af patienten</t>
+  </si>
+  <si>
+    <t>ALCA00</t>
+  </si>
+  <si>
+    <t>fysisk fremmøde</t>
+  </si>
+  <si>
+    <t>ALCA03</t>
+  </si>
+  <si>
+    <t>virtuel kontakt</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
     <t>445988008</t>
   </si>
   <si>
     <t>Assessment using health assessment questionnaire (procedure)</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>409073007</t>
-  </si>
-  <si>
-    <t>Instruktion</t>
-  </si>
-  <si>
-    <t>273586006</t>
-  </si>
-  <si>
-    <t>Master Questionnaire</t>
-  </si>
-  <si>
-    <t>HA</t>
-  </si>
-  <si>
-    <t>Head activity</t>
-  </si>
-  <si>
-    <t>SQ</t>
-  </si>
-  <si>
-    <t>Situation quality assessment</t>
-  </si>
-  <si>
-    <t>QR</t>
-  </si>
-  <si>
-    <t>Usage quality assessment</t>
-  </si>
-  <si>
-    <t>SDG</t>
-  </si>
-  <si>
-    <t>Same device group</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.208.176.2.1</t>
-  </si>
-  <si>
-    <t>NPU03011</t>
-  </si>
-  <si>
-    <t>O2 sat.;Hb(aB)</t>
-  </si>
-  <si>
-    <t>NPU21692</t>
-  </si>
-  <si>
-    <t>Puls;Hjerte</t>
-  </si>
-  <si>
-    <t>NPU03804</t>
-  </si>
-  <si>
-    <t>Legeme vægt; Pt</t>
-  </si>
-  <si>
-    <t>NPU27281</t>
-  </si>
-  <si>
-    <t>Pt—Legeme; massekoefficient(masse/kvadreret højde) = ? kg/m²</t>
-  </si>
-  <si>
-    <t>NPU03794</t>
-  </si>
-  <si>
-    <t>Pt—Legeme; højde = ? m</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.208.184.100.8</t>
-  </si>
-  <si>
-    <t>MCS88015</t>
-  </si>
-  <si>
-    <t>FEV1;Lunge</t>
-  </si>
-  <si>
-    <t>MCS88016</t>
-  </si>
-  <si>
-    <t>FVC;Lunge</t>
-  </si>
-  <si>
-    <t>MCS88017</t>
-  </si>
-  <si>
-    <t>FEV1/FVC;Lunge</t>
-  </si>
-  <si>
-    <t>MCS88019</t>
-  </si>
-  <si>
-    <t>Blodtryk hjemme systolisk;Arm</t>
-  </si>
-  <si>
-    <t>MCS88020</t>
-  </si>
-  <si>
-    <t>Blodtryk hjemme diastolisk;Arm</t>
-  </si>
-  <si>
-    <t>MCS88021</t>
-  </si>
-  <si>
-    <t>MRC skala;Pt(KOL)</t>
-  </si>
-  <si>
-    <t>MCS88023</t>
-  </si>
-  <si>
-    <t>FEV1 af forventet værdi;Pt(KOL)</t>
-  </si>
-  <si>
-    <t>MCS88050</t>
-  </si>
-  <si>
-    <t>Rejse sætte sig testen;Pt</t>
-  </si>
-  <si>
-    <t>MCS88137</t>
-  </si>
-  <si>
-    <t>CAT score;Pt</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.208.176.2.4</t>
-  </si>
-  <si>
-    <t>ZZ3170</t>
-  </si>
-  <si>
-    <t>Hjemmeblodtryksmåling udført af patienten</t>
-  </si>
-  <si>
-    <t>ALCA00</t>
-  </si>
-  <si>
-    <t>fysisk fremmøde</t>
-  </si>
-  <si>
-    <t>ALCA03</t>
-  </si>
-  <si>
-    <t>virtuel kontakt</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>Meetings (procedure)</t>
@@ -588,355 +618,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -962,7 +643,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>21</v>
@@ -979,155 +660,572 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
         <v>87</v>
       </c>
+      <c r="B10" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="B11" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1260,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>21</v>
@@ -1179,27 +1277,27 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>36</v>
@@ -1213,10 +1311,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>36</v>
@@ -1260,7 +1358,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>21</v>
@@ -1275,19 +1373,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -1295,7 +1393,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>36</v>
@@ -1309,27 +1407,27 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>36</v>

--- a/fhir/activitydefinition-code-to-perform-sharing.xlsx
+++ b/fhir/activitydefinition-code-to-perform-sharing.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Mapping Table 2" r:id="rId6" sheetId="4"/>
     <sheet name="Mapping Table 3" r:id="rId7" sheetId="5"/>
     <sheet name="Mapping Table 4" r:id="rId8" sheetId="6"/>
+    <sheet name="Mapping Table 5" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="127">
   <si>
     <t>Property</t>
   </si>
@@ -34,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -334,6 +335,12 @@
     <t>virtuel kontakt</t>
   </si>
   <si>
+    <t>ZZ7011</t>
+  </si>
+  <si>
+    <t>Klinisk foto</t>
+  </si>
+  <si>
     <t>http://snomed.info/sct</t>
   </si>
   <si>
@@ -347,6 +354,51 @@
   </si>
   <si>
     <t>Instruction</t>
+  </si>
+  <si>
+    <t>446080005</t>
+  </si>
+  <si>
+    <t>Photography of wound</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>72287-6</t>
+  </si>
+  <si>
+    <t>Wound size panel</t>
+  </si>
+  <si>
+    <t>39126-8</t>
+  </si>
+  <si>
+    <t>Length of Wound</t>
+  </si>
+  <si>
+    <t>39125-0</t>
+  </si>
+  <si>
+    <t>Width of Wound</t>
+  </si>
+  <si>
+    <t>39127-6</t>
+  </si>
+  <si>
+    <t>Depth of Wound</t>
+  </si>
+  <si>
+    <t>89260-4</t>
+  </si>
+  <si>
+    <t>Area of wound</t>
+  </si>
+  <si>
+    <t>94083-3</t>
+  </si>
+  <si>
+    <t>Wound volume</t>
   </si>
 </sst>
 </file>
@@ -1238,104 +1290,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1361,7 +1315,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1369,17 +1323,134 @@
       <c r="C2" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>34</v>
+      </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>106</v>
       </c>
+      <c r="C6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="B3" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1396,7 +1467,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1430,7 +1501,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1440,6 +1511,172 @@
       </c>
       <c r="E6" t="s" s="2">
         <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/activitydefinition-code-to-perform-sharing.xlsx
+++ b/fhir/activitydefinition-code-to-perform-sharing.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-perform-sharing.xlsx
+++ b/fhir/activitydefinition-code-to-perform-sharing.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="131">
   <si>
     <t>Property</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>urn:oid:1.2.208.176.2.1</t>
+  </si>
+  <si>
+    <t>DNK05472</t>
+  </si>
+  <si>
+    <t>Blodtryk systolisk;Arm</t>
+  </si>
+  <si>
+    <t>DNK05473</t>
+  </si>
+  <si>
+    <t>Blodtryk diastolisk;Arm</t>
   </si>
   <si>
     <t>NPU03011</t>
@@ -873,7 +885,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1029,6 +1041,40 @@
         <v>48</v>
       </c>
       <c r="E9" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s" s="2">
         <v>49</v>
       </c>
     </row>
@@ -1064,7 +1110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1081,10 +1127,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1098,10 +1144,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1115,10 +1161,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
@@ -1132,10 +1178,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1149,10 +1195,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1166,10 +1212,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>37</v>
@@ -1183,10 +1229,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>37</v>
@@ -1200,10 +1246,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>37</v>
@@ -1217,10 +1263,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>37</v>
@@ -1234,10 +1280,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>37</v>
@@ -1251,10 +1297,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>37</v>
@@ -1268,10 +1314,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>37</v>
@@ -1315,7 +1361,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1332,10 +1378,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1349,10 +1395,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1366,10 +1412,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
@@ -1383,10 +1429,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1430,7 +1476,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1447,10 +1493,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1467,7 +1513,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1501,7 +1547,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1515,10 +1561,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1562,7 +1608,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1579,10 +1625,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1596,10 +1642,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1613,10 +1659,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
@@ -1630,10 +1676,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1647,10 +1693,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1664,10 +1710,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>37</v>

--- a/fhir/activitydefinition-code-to-perform-sharing.xlsx
+++ b/fhir/activitydefinition-code-to-perform-sharing.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-perform-sharing.xlsx
+++ b/fhir/activitydefinition-code-to-perform-sharing.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="125">
   <si>
     <t>Property</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -107,7 +107,7 @@
     <t>Target</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0532</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0136</t>
   </si>
   <si>
     <t>Display</t>
@@ -122,7 +122,7 @@
     <t/>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/v2-0532</t>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0136</t>
   </si>
   <si>
     <t>TBD</t>
@@ -212,19 +212,19 @@
     <t>NPU03011</t>
   </si>
   <si>
-    <t>O2 sat.;Hb(aB)</t>
+    <t>Hb(Fe; O2-bind.; aB)—Oxygen(O2); mætn. = ?</t>
   </si>
   <si>
     <t>NPU21692</t>
   </si>
   <si>
-    <t>Puls;Hjerte</t>
+    <t>Hjerte—Systole; frekv. = ? × 1/min</t>
   </si>
   <si>
     <t>NPU03804</t>
   </si>
   <si>
-    <t>Legeme vægt; Pt</t>
+    <t>Pt—Legeme; masse = ? kg</t>
   </si>
   <si>
     <t>NPU27281</t>
@@ -245,12 +245,6 @@
     <t>Pt—Legeme; temp. = ? °C</t>
   </si>
   <si>
-    <t>NPU19748</t>
-  </si>
-  <si>
-    <t>C-reaktivt protein [CRP];P</t>
-  </si>
-  <si>
     <t>urn:oid:1.2.208.184.100.8</t>
   </si>
   <si>
@@ -270,18 +264,6 @@
   </si>
   <si>
     <t>FEV1/FVC;Lunge</t>
-  </si>
-  <si>
-    <t>MCS88019</t>
-  </si>
-  <si>
-    <t>Blodtryk hjemme systolisk;Arm</t>
-  </si>
-  <si>
-    <t>MCS88020</t>
-  </si>
-  <si>
-    <t>Blodtryk hjemme diastolisk;Arm</t>
   </si>
   <si>
     <t>MCS88021</t>
@@ -885,7 +867,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1061,23 +1043,6 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1085,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1110,7 +1075,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1127,10 +1092,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1144,10 +1109,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1161,10 +1126,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
@@ -1178,10 +1143,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1195,10 +1160,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1212,10 +1177,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>37</v>
@@ -1229,10 +1194,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>37</v>
@@ -1246,10 +1211,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>37</v>
@@ -1263,10 +1228,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>37</v>
@@ -1280,10 +1245,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>37</v>
@@ -1292,40 +1257,6 @@
         <v>48</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s" s="2">
         <v>49</v>
       </c>
     </row>
@@ -1361,7 +1292,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1378,10 +1309,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1395,10 +1326,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1412,10 +1343,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
@@ -1429,10 +1360,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1476,7 +1407,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1493,10 +1424,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1513,7 +1444,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1547,7 +1478,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1561,10 +1492,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1608,7 +1539,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1625,10 +1556,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1642,10 +1573,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1659,10 +1590,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
@@ -1676,10 +1607,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1693,10 +1624,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1710,10 +1641,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>37</v>

--- a/fhir/activitydefinition-code-to-perform-sharing.xlsx
+++ b/fhir/activitydefinition-code-to-perform-sharing.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-perform-sharing.xlsx
+++ b/fhir/activitydefinition-code-to-perform-sharing.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-perform-sharing.xlsx
+++ b/fhir/activitydefinition-code-to-perform-sharing.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-perform-sharing.xlsx
+++ b/fhir/activitydefinition-code-to-perform-sharing.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
